--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2021/ifoCAst_errors_last_rep_latest_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2021/ifoCAst_errors_last_rep_latest_since_2021_GVA.xlsx
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.01983578087274</v>
+        <v>1.029332457036088</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -575,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -583,12 +583,15 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1542060022360053</v>
+        <v>0.04982731217580827</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.2651053283564908</v>
       </c>
     </row>
     <row r="21" spans="1:2">
